--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcbco\Downloads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBC3736-0E4A-47F5-9900-665A62CF685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B190B4-5093-4679-B710-78B595F59263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{415DB520-546B-4340-998C-F84252B3C5FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Overtime Bonus</t>
+  </si>
+  <si>
+    <t>Jan Pay</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -284,6 +293,12 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -621,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF6339-3C20-476F-ACDE-850BF64349F0}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,15 +653,15 @@
     <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="11.21875" style="1" customWidth="1"/>
+    <col min="14" max="18" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="13.77734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -670,8 +685,11 @@
       <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -757,8 +775,27 @@
         <f t="shared" si="3"/>
         <v>45686</v>
       </c>
+      <c r="X3" s="13">
+        <v>45658</v>
+      </c>
+      <c r="Y3" s="13">
+        <f>X3+7</f>
+        <v>45665</v>
+      </c>
+      <c r="Z3" s="13">
+        <f t="shared" ref="Z3:AB3" si="4">Y3+7</f>
+        <v>45672</v>
+      </c>
+      <c r="AA3" s="13">
+        <f t="shared" si="4"/>
+        <v>45679</v>
+      </c>
+      <c r="AB3" s="13">
+        <f t="shared" si="4"/>
+        <v>45686</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,23 +821,23 @@
         <v>46</v>
       </c>
       <c r="I4" s="8">
-        <f>IF(D4&gt;40,D4-40,0)</f>
+        <f t="shared" ref="I4:I20" si="5">IF(D4&gt;40,D4-40,0)</f>
         <v>1</v>
       </c>
       <c r="J4" s="8">
-        <f>IF(E4&gt;40,E4-40,0)</f>
+        <f t="shared" ref="J4:J20" si="6">IF(E4&gt;40,E4-40,0)</f>
         <v>2</v>
       </c>
       <c r="K4" s="8">
-        <f>IF(F4&gt;40,F4-40,0)</f>
+        <f t="shared" ref="K4:K20" si="7">IF(F4&gt;40,F4-40,0)</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f>IF(G4&gt;40,G4-40,0)</f>
+        <f t="shared" ref="L4:L20" si="8">IF(G4&gt;40,G4-40,0)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f>IF(H4&gt;40,H4-40,0)</f>
+        <f t="shared" ref="M4:M20" si="9">IF(H4&gt;40,H4-40,0)</f>
         <v>6</v>
       </c>
       <c r="N4" s="10">
@@ -820,7 +857,7 @@
         <v>477</v>
       </c>
       <c r="R4" s="10">
-        <f t="shared" ref="P4:R19" si="4">$C4*H4</f>
+        <f t="shared" ref="P4:R19" si="10">$C4*H4</f>
         <v>731.4</v>
       </c>
       <c r="S4" s="12">
@@ -828,27 +865,47 @@
         <v>7.95</v>
       </c>
       <c r="T4" s="12">
-        <f t="shared" ref="T4:W19" si="5">0.5*$C4*J4</f>
+        <f t="shared" ref="T4:W19" si="11">0.5*$C4*J4</f>
         <v>15.9</v>
       </c>
       <c r="U4" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V4" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W4" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>47.7</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="14">
         <f>N4+S4</f>
         <v>659.85</v>
       </c>
+      <c r="Y4" s="14">
+        <f t="shared" ref="Y4:Y20" si="12">O4+T4</f>
+        <v>683.7</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" ref="Z4:Z20" si="13">P4+U4</f>
+        <v>620.1</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" ref="AA4:AA20" si="14">Q4+V4</f>
+        <v>477</v>
+      </c>
+      <c r="AB4" s="14">
+        <f t="shared" ref="AB4:AB20" si="15">R4+W4</f>
+        <v>779.1</v>
+      </c>
+      <c r="AD4" s="3">
+        <f>SUM(X4:AB4)</f>
+        <v>3219.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,71 +931,91 @@
         <v>44</v>
       </c>
       <c r="I5" s="8">
-        <f>IF(D5&gt;40,D5-40,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J5" s="8">
-        <f>IF(E5&gt;40,E5-40,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K5" s="8">
-        <f>IF(F5&gt;40,F5-40,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f>IF(G5&gt;40,G5-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M5" s="8">
-        <f>IF(H5&gt;40,H5-40,0)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N5" s="10">
-        <f>C5*D5</f>
+        <f t="shared" ref="N5:N20" si="16">C5*D5</f>
         <v>420</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" ref="O5:O20" si="6">$C5*E5</f>
+        <f t="shared" ref="O5:O20" si="17">$C5*E5</f>
         <v>410</v>
       </c>
       <c r="P5" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>440</v>
       </c>
       <c r="S5" s="12">
-        <f>0.5*C5*I5</f>
+        <f t="shared" ref="S5:S20" si="18">0.5*C5*I5</f>
         <v>10</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="X5" s="3">
-        <f>N5+S5</f>
+      <c r="X5" s="14">
+        <f t="shared" ref="X5:X20" si="19">N5+S5</f>
         <v>430</v>
       </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="12"/>
+        <v>415</v>
+      </c>
+      <c r="Z5" s="14">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="AA5" s="14">
+        <f t="shared" si="14"/>
+        <v>380</v>
+      </c>
+      <c r="AB5" s="14">
+        <f t="shared" si="15"/>
+        <v>460</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" ref="AD5:AD20" si="20">SUM(X5:AB5)</f>
+        <v>2085</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,71 +1041,91 @@
         <v>18</v>
       </c>
       <c r="I6" s="8">
-        <f>IF(D6&gt;40,D6-40,0)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="J6" s="8">
-        <f>IF(E6&gt;40,E6-40,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <f>IF(F6&gt;40,F6-40,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <f>IF(G6&gt;40,G6-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M6" s="8">
-        <f>IF(H6&gt;40,H6-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N6" s="10">
-        <f>C6*D6</f>
+        <f t="shared" si="16"/>
         <v>1082.9000000000001</v>
       </c>
       <c r="O6" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>884</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>729.30000000000007</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>442</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>397.8</v>
       </c>
       <c r="S6" s="12">
-        <f>0.5*C6*I6</f>
+        <f t="shared" si="18"/>
         <v>99.45</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V6" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W6" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <f>N6+S6</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <f t="shared" si="19"/>
         <v>1182.3500000000001</v>
       </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="12"/>
+        <v>884</v>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" si="13"/>
+        <v>729.30000000000007</v>
+      </c>
+      <c r="AA6" s="14">
+        <f t="shared" si="14"/>
+        <v>442</v>
+      </c>
+      <c r="AB6" s="14">
+        <f t="shared" si="15"/>
+        <v>397.8</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="20"/>
+        <v>3635.4500000000007</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1054,71 +1151,91 @@
         <v>39</v>
       </c>
       <c r="I7" s="8">
-        <f>IF(D7&gt;40,D7-40,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J7" s="8">
-        <f>IF(E7&gt;40,E7-40,0)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K7" s="8">
-        <f>IF(F7&gt;40,F7-40,0)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="L7" s="8">
-        <f>IF(G7&gt;40,G7-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M7" s="8">
-        <f>IF(H7&gt;40,H7-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N7" s="10">
-        <f>C7*D7</f>
+        <f t="shared" si="16"/>
         <v>783.1</v>
       </c>
       <c r="O7" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>955.00000000000011</v>
       </c>
       <c r="P7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>897.7</v>
       </c>
       <c r="Q7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>573</v>
       </c>
       <c r="R7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>744.90000000000009</v>
       </c>
       <c r="S7" s="12">
-        <f>0.5*C7*I7</f>
+        <f t="shared" si="18"/>
         <v>9.5500000000000007</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95.5</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>66.850000000000009</v>
       </c>
       <c r="V7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W7" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <f>N7+S7</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <f t="shared" si="19"/>
         <v>792.65</v>
       </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="12"/>
+        <v>1050.5</v>
+      </c>
+      <c r="Z7" s="14">
+        <f t="shared" si="13"/>
+        <v>964.55000000000007</v>
+      </c>
+      <c r="AA7" s="14">
+        <f t="shared" si="14"/>
+        <v>573</v>
+      </c>
+      <c r="AB7" s="14">
+        <f t="shared" si="15"/>
+        <v>744.90000000000009</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="20"/>
+        <v>4125.6000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,71 +1261,91 @@
         <v>40</v>
       </c>
       <c r="I8" s="8">
-        <f>IF(D8&gt;40,D8-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <f>IF(E8&gt;40,E8-40,0)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="K8" s="8">
-        <f>IF(F8&gt;40,F8-40,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L8" s="8">
-        <f>IF(G8&gt;40,G8-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <f>IF(H8&gt;40,H8-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N8" s="10">
-        <f>C8*D8</f>
+        <f t="shared" si="16"/>
         <v>269.10000000000002</v>
       </c>
       <c r="O8" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>358.8</v>
       </c>
       <c r="P8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>289.8</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>276</v>
       </c>
       <c r="R8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>276</v>
       </c>
       <c r="S8" s="12">
-        <f>0.5*C8*I8</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>41.400000000000006</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.9</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <f>N8+S8</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <f t="shared" si="19"/>
         <v>269.10000000000002</v>
       </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="12"/>
+        <v>400.20000000000005</v>
+      </c>
+      <c r="Z8" s="14">
+        <f t="shared" si="13"/>
+        <v>296.7</v>
+      </c>
+      <c r="AA8" s="14">
+        <f t="shared" si="14"/>
+        <v>276</v>
+      </c>
+      <c r="AB8" s="14">
+        <f t="shared" si="15"/>
+        <v>276</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" si="20"/>
+        <v>1518</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1234,71 +1371,91 @@
         <v>20</v>
       </c>
       <c r="I9" s="8">
-        <f>IF(D9&gt;40,D9-40,0)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J9" s="8">
-        <f>IF(E9&gt;40,E9-40,0)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K9" s="8">
-        <f>IF(F9&gt;40,F9-40,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L9" s="8">
-        <f>IF(G9&gt;40,G9-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M9" s="8">
-        <f>IF(H9&gt;40,H9-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N9" s="10">
-        <f>C9*D9</f>
+        <f t="shared" si="16"/>
         <v>624.79999999999995</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>724.19999999999993</v>
       </c>
       <c r="P9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>596.4</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>568</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>284</v>
       </c>
       <c r="S9" s="12">
-        <f>0.5*C9*I9</f>
+        <f t="shared" si="18"/>
         <v>28.4</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>78.099999999999994</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14.2</v>
       </c>
       <c r="V9" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <f>N9+S9</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <f t="shared" si="19"/>
         <v>653.19999999999993</v>
       </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="12"/>
+        <v>802.3</v>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" si="13"/>
+        <v>610.6</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" si="14"/>
+        <v>568</v>
+      </c>
+      <c r="AB9" s="14">
+        <f t="shared" si="15"/>
+        <v>284</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="20"/>
+        <v>2918.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,71 +1481,91 @@
         <v>49</v>
       </c>
       <c r="I10" s="8">
-        <f>IF(D10&gt;40,D10-40,0)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="J10" s="8">
-        <f>IF(E10&gt;40,E10-40,0)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K10" s="8">
-        <f>IF(F10&gt;40,F10-40,0)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="L10" s="8">
-        <f>IF(G10&gt;40,G10-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M10" s="8">
-        <f>IF(H10&gt;40,H10-40,0)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N10" s="10">
-        <f>C10*D10</f>
+        <f t="shared" si="16"/>
         <v>990</v>
       </c>
       <c r="O10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1080</v>
       </c>
       <c r="P10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>810</v>
       </c>
       <c r="Q10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>720</v>
       </c>
       <c r="R10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>882</v>
       </c>
       <c r="S10" s="12">
-        <f>0.5*C10*I10</f>
+        <f t="shared" si="18"/>
         <v>135</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="V10" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
-      <c r="X10" s="3">
-        <f>N10+S10</f>
+      <c r="X10" s="14">
+        <f t="shared" si="19"/>
         <v>1125</v>
       </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="12"/>
+        <v>1260</v>
+      </c>
+      <c r="Z10" s="14">
+        <f t="shared" si="13"/>
+        <v>855</v>
+      </c>
+      <c r="AA10" s="14">
+        <f t="shared" si="14"/>
+        <v>720</v>
+      </c>
+      <c r="AB10" s="14">
+        <f t="shared" si="15"/>
+        <v>963</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" si="20"/>
+        <v>4923</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,71 +1591,91 @@
         <v>20</v>
       </c>
       <c r="I11" s="8">
-        <f>IF(D11&gt;40,D11-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11" s="8">
-        <f>IF(E11&gt;40,E11-40,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f>IF(F11&gt;40,F11-40,0)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="L11" s="8">
-        <f>IF(G11&gt;40,G11-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M11" s="8">
-        <f>IF(H11&gt;40,H11-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N11" s="10">
-        <f>C11*D11</f>
+        <f t="shared" si="16"/>
         <v>577.5</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>385</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>945</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>350</v>
       </c>
       <c r="S11" s="12">
-        <f>0.5*C11*I11</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>122.5</v>
       </c>
       <c r="V11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W11" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <f>N11+S11</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="19"/>
         <v>577.5</v>
       </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="12"/>
+        <v>385</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="13"/>
+        <v>1067.5</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+      <c r="AB11" s="14">
+        <f t="shared" si="15"/>
+        <v>350</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" si="20"/>
+        <v>3080</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1504,71 +1701,91 @@
         <v>40</v>
       </c>
       <c r="I12" s="8">
-        <f>IF(D12&gt;40,D12-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <f>IF(E12&gt;40,E12-40,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K12" s="8">
-        <f>IF(F12&gt;40,F12-40,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L12" s="8">
-        <f>IF(G12&gt;40,G12-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M12" s="8">
-        <f>IF(H12&gt;40,H12-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N12" s="10">
-        <f>C12*D12</f>
+        <f t="shared" si="16"/>
         <v>426.29999999999995</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>588</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>617.4</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>588</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>588</v>
       </c>
       <c r="S12" s="12">
-        <f>0.5*C12*I12</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14.7</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <f>N12+S12</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <f t="shared" si="19"/>
         <v>426.29999999999995</v>
       </c>
+      <c r="Y12" s="14">
+        <f t="shared" si="12"/>
+        <v>588</v>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="13"/>
+        <v>632.1</v>
+      </c>
+      <c r="AA12" s="14">
+        <f t="shared" si="14"/>
+        <v>588</v>
+      </c>
+      <c r="AB12" s="14">
+        <f t="shared" si="15"/>
+        <v>588</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" si="20"/>
+        <v>2822.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1594,71 +1811,91 @@
         <v>40</v>
       </c>
       <c r="I13" s="8">
-        <f>IF(D13&gt;40,D13-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <f>IF(E13&gt;40,E13-40,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f>IF(F13&gt;40,F13-40,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L13" s="8">
-        <f>IF(G13&gt;40,G13-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f>IF(H13&gt;40,H13-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N13" s="10">
-        <f>C13*D13</f>
+        <f t="shared" si="16"/>
         <v>556</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>556</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>583.80000000000007</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>556</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>556</v>
       </c>
       <c r="S13" s="12">
-        <f>0.5*C13*I13</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13.9</v>
       </c>
       <c r="V13" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <f>N13+S13</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <f t="shared" si="19"/>
         <v>556</v>
       </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="12"/>
+        <v>556</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="13"/>
+        <v>597.70000000000005</v>
+      </c>
+      <c r="AA13" s="14">
+        <f t="shared" si="14"/>
+        <v>556</v>
+      </c>
+      <c r="AB13" s="14">
+        <f t="shared" si="15"/>
+        <v>556</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="20"/>
+        <v>2821.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1684,71 +1921,91 @@
         <v>40</v>
       </c>
       <c r="I14" s="8">
-        <f>IF(D14&gt;40,D14-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J14" s="8">
-        <f>IF(E14&gt;40,E14-40,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <f>IF(F14&gt;40,F14-40,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L14" s="8">
-        <f>IF(G14&gt;40,G14-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M14" s="8">
-        <f>IF(H14&gt;40,H14-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N14" s="10">
-        <f>C14*D14</f>
+        <f t="shared" si="16"/>
         <v>448</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>448</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>470.4</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>436.79999999999995</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>448</v>
       </c>
       <c r="S14" s="12">
-        <f>0.5*C14*I14</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.2</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <f>N14+S14</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <f t="shared" si="19"/>
         <v>448</v>
       </c>
+      <c r="Y14" s="14">
+        <f t="shared" si="12"/>
+        <v>448</v>
+      </c>
+      <c r="Z14" s="14">
+        <f t="shared" si="13"/>
+        <v>481.59999999999997</v>
+      </c>
+      <c r="AA14" s="14">
+        <f t="shared" si="14"/>
+        <v>436.79999999999995</v>
+      </c>
+      <c r="AB14" s="14">
+        <f t="shared" si="15"/>
+        <v>448</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="20"/>
+        <v>2262.3999999999996</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1774,71 +2031,91 @@
         <v>40</v>
       </c>
       <c r="I15" s="8">
-        <f>IF(D15&gt;40,D15-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="8">
-        <f>IF(E15&gt;40,E15-40,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K15" s="8">
-        <f>IF(F15&gt;40,F15-40,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L15" s="8">
-        <f>IF(G15&gt;40,G15-40,0)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M15" s="8">
-        <f>IF(H15&gt;40,H15-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N15" s="10">
-        <f>C15*D15</f>
+        <f t="shared" si="16"/>
         <v>404</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>404</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>414.09999999999997</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>424.2</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>404</v>
       </c>
       <c r="S15" s="12">
-        <f>0.5*C15*I15</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.05</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.1</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <f>N15+S15</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" si="19"/>
         <v>404</v>
       </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="12"/>
+        <v>404</v>
+      </c>
+      <c r="Z15" s="14">
+        <f t="shared" si="13"/>
+        <v>419.15</v>
+      </c>
+      <c r="AA15" s="14">
+        <f t="shared" si="14"/>
+        <v>434.3</v>
+      </c>
+      <c r="AB15" s="14">
+        <f t="shared" si="15"/>
+        <v>404</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="20"/>
+        <v>2065.4499999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1864,71 +2141,91 @@
         <v>40</v>
       </c>
       <c r="I16" s="8">
-        <f>IF(D16&gt;40,D16-40,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J16" s="8">
-        <f>IF(E16&gt;40,E16-40,0)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K16" s="8">
-        <f>IF(F16&gt;40,F16-40,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L16" s="8">
-        <f>IF(G16&gt;40,G16-40,0)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M16" s="8">
-        <f>IF(H16&gt;40,H16-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N16" s="10">
-        <f>C16*D16</f>
+        <f t="shared" si="16"/>
         <v>378</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>378</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>351</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
       <c r="S16" s="12">
-        <f>0.5*C16*I16</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="U16" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V16" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="W16" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <f>N16+S16</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" si="19"/>
         <v>387</v>
       </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="12"/>
+        <v>387</v>
+      </c>
+      <c r="Z16" s="14">
+        <f t="shared" si="13"/>
+        <v>351</v>
+      </c>
+      <c r="AA16" s="14">
+        <f t="shared" si="14"/>
+        <v>387</v>
+      </c>
+      <c r="AB16" s="14">
+        <f t="shared" si="15"/>
+        <v>360</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="20"/>
+        <v>1872</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1954,71 +2251,91 @@
         <v>40</v>
       </c>
       <c r="I17" s="8">
-        <f>IF(D17&gt;40,D17-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J17" s="8">
-        <f>IF(E17&gt;40,E17-40,0)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K17" s="8">
-        <f>IF(F17&gt;40,F17-40,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L17" s="8">
-        <f>IF(G17&gt;40,G17-40,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M17" s="8">
-        <f>IF(H17&gt;40,H17-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N17" s="10">
-        <f>C17*D17</f>
+        <f t="shared" si="16"/>
         <v>337.59999999999997</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>362.91999999999996</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>329.15999999999997</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>346.03999999999996</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>337.59999999999997</v>
       </c>
       <c r="S17" s="12">
-        <f>0.5*C17*I17</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12.66</v>
       </c>
       <c r="U17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V17" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.22</v>
       </c>
       <c r="W17" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <f>N17+S17</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <f t="shared" si="19"/>
         <v>337.59999999999997</v>
       </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="12"/>
+        <v>375.58</v>
+      </c>
+      <c r="Z17" s="14">
+        <f t="shared" si="13"/>
+        <v>329.15999999999997</v>
+      </c>
+      <c r="AA17" s="14">
+        <f t="shared" si="14"/>
+        <v>350.26</v>
+      </c>
+      <c r="AB17" s="14">
+        <f t="shared" si="15"/>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" si="20"/>
+        <v>1730.1999999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2044,71 +2361,91 @@
         <v>40</v>
       </c>
       <c r="I18" s="8">
-        <f>IF(D18&gt;40,D18-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <f>IF(E18&gt;40,E18-40,0)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K18" s="8">
-        <f>IF(F18&gt;40,F18-40,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L18" s="8">
-        <f>IF(G18&gt;40,G18-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M18" s="8">
-        <f>IF(H18&gt;40,H18-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N18" s="10">
-        <f>C18*D18</f>
+        <f t="shared" si="16"/>
         <v>568</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>596.4</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>553.79999999999995</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>568</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>568</v>
       </c>
       <c r="S18" s="12">
-        <f>0.5*C18*I18</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14.2</v>
       </c>
       <c r="U18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <f>N18+S18</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" si="19"/>
         <v>568</v>
       </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="12"/>
+        <v>610.6</v>
+      </c>
+      <c r="Z18" s="14">
+        <f t="shared" si="13"/>
+        <v>553.79999999999995</v>
+      </c>
+      <c r="AA18" s="14">
+        <f t="shared" si="14"/>
+        <v>568</v>
+      </c>
+      <c r="AB18" s="14">
+        <f t="shared" si="15"/>
+        <v>568</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="20"/>
+        <v>2868.3999999999996</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2134,71 +2471,91 @@
         <v>40</v>
       </c>
       <c r="I19" s="8">
-        <f>IF(D19&gt;40,D19-40,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <f>IF(E19&gt;40,E19-40,0)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K19" s="8">
-        <f>IF(F19&gt;40,F19-40,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L19" s="8">
-        <f>IF(G19&gt;40,G19-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M19" s="8">
-        <f>IF(H19&gt;40,H19-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N19" s="10">
-        <f>C19*D19</f>
+        <f t="shared" si="16"/>
         <v>1845</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>1890</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1800</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1260</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1800</v>
       </c>
       <c r="S19" s="12">
-        <f>0.5*C19*I19</f>
+        <f t="shared" si="18"/>
         <v>22.5</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="U19" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V19" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W19" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <f>N19+S19</f>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" si="19"/>
         <v>1867.5</v>
       </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="12"/>
+        <v>1935</v>
+      </c>
+      <c r="Z19" s="14">
+        <f t="shared" si="13"/>
+        <v>1800</v>
+      </c>
+      <c r="AA19" s="14">
+        <f t="shared" si="14"/>
+        <v>1260</v>
+      </c>
+      <c r="AB19" s="14">
+        <f t="shared" si="15"/>
+        <v>1800</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" si="20"/>
+        <v>8662.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2224,71 +2581,91 @@
         <v>40</v>
       </c>
       <c r="I20" s="8">
-        <f>IF(D20&gt;40,D20-40,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J20" s="8">
-        <f>IF(E20&gt;40,E20-40,0)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K20" s="8">
-        <f>IF(F20&gt;40,F20-40,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L20" s="8">
-        <f>IF(G20&gt;40,G20-40,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M20" s="8">
-        <f>IF(H20&gt;40,H20-40,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N20" s="10">
-        <f>C20*D20</f>
+        <f t="shared" si="16"/>
         <v>1170</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>2400</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" ref="P20" si="7">$C20*F20</f>
+        <f t="shared" ref="P20" si="21">$C20*F20</f>
         <v>1200</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" ref="Q20" si="8">$C20*G20</f>
+        <f t="shared" ref="Q20" si="22">$C20*G20</f>
         <v>600</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" ref="R20" si="9">$C20*H20</f>
+        <f t="shared" ref="R20" si="23">$C20*H20</f>
         <v>1200</v>
       </c>
       <c r="S20" s="12">
-        <f>0.5*C20*I20</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" ref="T20:W20" si="10">0.5*$C20*J20</f>
+        <f t="shared" ref="T20:W20" si="24">0.5*$C20*J20</f>
         <v>600</v>
       </c>
       <c r="U20" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V20" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W20" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <f>N20+S20</f>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="19"/>
         <v>1170</v>
       </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="Z20" s="14">
+        <f t="shared" si="13"/>
+        <v>1200</v>
+      </c>
+      <c r="AA20" s="14">
+        <f t="shared" si="14"/>
+        <v>600</v>
+      </c>
+      <c r="AB20" s="14">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="AD20" s="3">
+        <f t="shared" si="20"/>
+        <v>7170</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2300,37 +2677,108 @@
         <f>MAX(D4:D20)</f>
         <v>55</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="2">
-        <f>MAX(N4:N20)</f>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:N22" si="25">MAX(E4:E20)</f>
+        <v>80</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="25"/>
+        <v>42</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="25"/>
         <v>1845</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2">
-        <f t="shared" ref="S22:X22" si="11">MAX(S4:S20)</f>
+      <c r="O22" s="4">
+        <f>MAX(O4:O20)</f>
+        <v>2400</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" ref="P22:S22" si="26">MAX(P4:P20)</f>
+        <v>1800</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="26"/>
+        <v>1260</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="26"/>
+        <v>1800</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="26"/>
         <v>135</v>
       </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2">
-        <f t="shared" si="11"/>
+      <c r="T22" s="4">
+        <f>MAX(T4:T20)</f>
+        <v>600</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" ref="U22:AB22" si="27">MAX(U4:U20)</f>
+        <v>122.5</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="27"/>
+        <v>10.1</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="27"/>
+        <v>81</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="27"/>
         <v>1867.5</v>
       </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="27"/>
+        <v>3000</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="27"/>
+        <v>1260</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" ref="AD22" si="28">MAX(AD4:AD20)</f>
+        <v>8662.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -2342,37 +2790,108 @@
         <f>MIN(D4:D20)</f>
         <v>29</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="2">
-        <f>MIN(N4:N20)</f>
+      <c r="E23" s="4">
+        <f t="shared" ref="E23:N23" si="29">MIN(E4:E20)</f>
+        <v>22</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="29"/>
+        <v>33</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="29"/>
         <v>269.10000000000002</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2">
-        <f t="shared" ref="S23:X23" si="12">MIN(S4:S20)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2">
-        <f t="shared" si="12"/>
+      <c r="O23" s="4">
+        <f>MIN(O4:O20)</f>
+        <v>358.8</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" ref="P23:S23" si="30">MIN(P4:P20)</f>
+        <v>289.8</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="30"/>
+        <v>276</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="30"/>
+        <v>276</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <f>MIN(T4:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:AB23" si="31">MIN(U4:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="31"/>
         <v>269.10000000000002</v>
       </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="31"/>
+        <v>375.58</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" si="31"/>
+        <v>296.7</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="31"/>
+        <v>276</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" si="31"/>
+        <v>276</v>
+      </c>
+      <c r="AD23" s="4">
+        <f t="shared" ref="AD23" si="32">MIN(AD4:AD20)</f>
+        <v>1518</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2384,37 +2903,108 @@
         <f>AVERAGE(D4:D20)</f>
         <v>40.882352941176471</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="2">
-        <f>AVERAGE(N4:N20)</f>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24:N24" si="33">AVERAGE(E4:E20)</f>
+        <v>45.117647058823529</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="33"/>
+        <v>41.529411764705884</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="33"/>
+        <v>35.882352941176471</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="33"/>
+        <v>37.411764705882355</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="33"/>
+        <v>2.0588235294117645</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="33"/>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="33"/>
+        <v>2.1764705882352939</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="33"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="33"/>
+        <v>1.1176470588235294</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="33"/>
         <v>678.36470588235295</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2">
-        <f t="shared" ref="S24:X24" si="13">AVERAGE(S4:S20)</f>
+      <c r="O24" s="4">
+        <f>AVERAGE(O4:O20)</f>
+        <v>769.88941176470587</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" ref="P24:S24" si="34">AVERAGE(P4:P20)</f>
+        <v>682.82117647058828</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="34"/>
+        <v>546.64941176470597</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="34"/>
+        <v>609.86470588235295</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="34"/>
         <v>18.932352941176472</v>
       </c>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2">
-        <f t="shared" si="13"/>
+      <c r="T24" s="4">
+        <f>AVERAGE(T4:T20)</f>
+        <v>64.515294117647059</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" ref="U24:AB24" si="35">AVERAGE(U4:U20)</f>
+        <v>17.664705882352941</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="35"/>
+        <v>1.371764705882353</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="35"/>
+        <v>8.7470588235294109</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="35"/>
         <v>697.29705882352937</v>
       </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="35"/>
+        <v>834.40470588235303</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="35"/>
+        <v>700.48588235294119</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="35"/>
+        <v>548.02117647058822</v>
+      </c>
+      <c r="AB24" s="4">
+        <f t="shared" si="35"/>
+        <v>618.61176470588248</v>
+      </c>
+      <c r="AD24" s="4">
+        <f t="shared" ref="AD24" si="36">AVERAGE(AD4:AD20)</f>
+        <v>3398.8205882352941</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2422,25 +3012,105 @@
         <f>SUM(D4:D20)</f>
         <v>695</v>
       </c>
-      <c r="N25" s="2">
-        <f>SUM(N4:N20)</f>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25:N25" si="37">SUM(E4:E20)</f>
+        <v>767</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="37"/>
+        <v>706</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="37"/>
+        <v>610</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="37"/>
+        <v>636</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="37"/>
+        <v>35</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="37"/>
+        <v>105</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="37"/>
+        <v>37</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="37"/>
+        <v>19</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="37"/>
         <v>11532.2</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2">
-        <f t="shared" ref="S25:X25" si="14">SUM(S4:S20)</f>
+      <c r="O25" s="1">
+        <f>SUM(O4:O20)</f>
+        <v>13088.119999999999</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" ref="P25:S25" si="38">SUM(P4:P20)</f>
+        <v>11607.960000000001</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="38"/>
+        <v>9293.0400000000009</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="38"/>
+        <v>10367.700000000001</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="38"/>
         <v>321.85000000000002</v>
       </c>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2">
-        <f t="shared" si="14"/>
+      <c r="T25" s="1">
+        <f>SUM(T4:T20)</f>
+        <v>1096.76</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" ref="U25:AB25" si="39">SUM(U4:U20)</f>
+        <v>300.3</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="39"/>
+        <v>23.32</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="39"/>
+        <v>148.69999999999999</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="39"/>
         <v>11854.05</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="39"/>
+        <v>14184.880000000001</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="39"/>
+        <v>11908.26</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="39"/>
+        <v>9316.36</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="39"/>
+        <v>10516.400000000001</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" ref="AD25" si="40">SUM(AD4:AD20)</f>
+        <v>57779.95</v>
       </c>
     </row>
   </sheetData>
